--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N2">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q2">
-        <v>8.688193111093444</v>
+        <v>1.833191264975</v>
       </c>
       <c r="R2">
-        <v>78.19373799984099</v>
+        <v>16.498721384775</v>
       </c>
       <c r="S2">
-        <v>0.005089835680153782</v>
+        <v>0.001280076748765122</v>
       </c>
       <c r="T2">
-        <v>0.005089835680153782</v>
+        <v>0.001280076748765122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q3">
-        <v>42.47352572048412</v>
+        <v>14.90814423188056</v>
       </c>
       <c r="R3">
-        <v>382.261731484357</v>
+        <v>134.173298086925</v>
       </c>
       <c r="S3">
-        <v>0.02488241961358083</v>
+        <v>0.01041002603660531</v>
       </c>
       <c r="T3">
-        <v>0.02488241961358083</v>
+        <v>0.01041002603660531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N4">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O4">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P4">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q4">
-        <v>29.43966885695978</v>
+        <v>7.228086128583334</v>
       </c>
       <c r="R4">
-        <v>264.957019712638</v>
+        <v>65.05277515725</v>
       </c>
       <c r="S4">
-        <v>0.01724674797671568</v>
+        <v>0.005047212022034923</v>
       </c>
       <c r="T4">
-        <v>0.01724674797671568</v>
+        <v>0.005047212022034925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N5">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q5">
-        <v>155.5300010532733</v>
+        <v>93.49474818053999</v>
       </c>
       <c r="R5">
-        <v>1399.77000947946</v>
+        <v>841.4527336248598</v>
       </c>
       <c r="S5">
-        <v>0.09111470458506844</v>
+        <v>0.06528530632028269</v>
       </c>
       <c r="T5">
-        <v>0.09111470458506846</v>
+        <v>0.06528530632028269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q6">
-        <v>760.3315690127134</v>
+        <v>760.3315690127132</v>
       </c>
       <c r="R6">
-        <v>6842.98412111442</v>
+        <v>6842.984121114419</v>
       </c>
       <c r="S6">
-        <v>0.4454278006052706</v>
+        <v>0.5309226491751535</v>
       </c>
       <c r="T6">
-        <v>0.4454278006052707</v>
+        <v>0.5309226491751535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N7">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O7">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P7">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q7">
-        <v>527.0085125622534</v>
+        <v>368.6402533826</v>
       </c>
       <c r="R7">
-        <v>4743.07661306028</v>
+        <v>3317.7622804434</v>
       </c>
       <c r="S7">
-        <v>0.3087393082411057</v>
+        <v>0.2574133021632004</v>
       </c>
       <c r="T7">
-        <v>0.3087393082411057</v>
+        <v>0.2574133021632004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N8">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q8">
-        <v>19.77961411911567</v>
+        <v>14.19926286079</v>
       </c>
       <c r="R8">
-        <v>178.016527072041</v>
+        <v>127.79336574711</v>
       </c>
       <c r="S8">
-        <v>0.01158756307506591</v>
+        <v>0.009915029918031644</v>
       </c>
       <c r="T8">
-        <v>0.01158756307506591</v>
+        <v>0.009915029918031644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q9">
-        <v>96.69558886263968</v>
+        <v>115.4733075372411</v>
       </c>
       <c r="R9">
-        <v>870.2602997637571</v>
+        <v>1039.25976783517</v>
       </c>
       <c r="S9">
-        <v>0.05664752751387718</v>
+        <v>0.08063244621855781</v>
       </c>
       <c r="T9">
-        <v>0.05664752751387718</v>
+        <v>0.08063244621855781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N10">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O10">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P10">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q10">
-        <v>67.02259979024866</v>
+        <v>55.98624479676666</v>
       </c>
       <c r="R10">
-        <v>603.203398112238</v>
+        <v>503.8762031709</v>
       </c>
       <c r="S10">
-        <v>0.03926409270916194</v>
+        <v>0.03909395139736858</v>
       </c>
       <c r="T10">
-        <v>0.03926409270916194</v>
+        <v>0.03909395139736859</v>
       </c>
     </row>
   </sheetData>
